--- a/admin/ajax/Thá»‘ng kÃª NXB1 - Nguyen TrÃ£i.xlsx
+++ b/admin/ajax/Thá»‘ng kÃª NXB1 - Nguyen TrÃ£i.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="THỐNG KÊ NXB1 - Nguyen Trãi" sheetId="1" r:id="rId4"/>
+    <sheet name="THỐNG KÊ 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
-    <t>Thống kê NXB NXB1 - Nguyen Trãi</t>
+    <t>THỐNG KÊ SÁCH THEO NXB1 - Nguyen Trãi</t>
   </si>
   <si>
     <t>STT</t>
@@ -511,52 +511,52 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A5" s="5"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="5">
@@ -596,7 +596,7 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="A1:K3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
